--- a/database/reports.xlsx
+++ b/database/reports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,9 +423,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database/reports.xlsx
+++ b/database/reports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,14 +423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>